--- a/target/test-classes/TeacherDetails.xlsx
+++ b/target/test-classes/TeacherDetails.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\schooltest\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6075"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Code</t>
   </si>
@@ -58,9 +62,6 @@
     <t>13/05/1986</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Contact No</t>
   </si>
   <si>
@@ -68,16 +69,96 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Emaill ID</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>Academic Year</t>
+  </si>
+  <si>
+    <t>PAN No</t>
+  </si>
+  <si>
+    <t>Aadhar No.</t>
+  </si>
+  <si>
+    <t>PF No.</t>
+  </si>
+  <si>
+    <t>Enrolment No.</t>
+  </si>
+  <si>
+    <t>Enrolment ID</t>
+  </si>
+  <si>
+    <t>Joining date</t>
+  </si>
+  <si>
+    <t>Confirmation Date</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Has Left</t>
+  </si>
+  <si>
+    <t>Part Time</t>
+  </si>
+  <si>
+    <t>faisal.k@gmail.com</t>
+  </si>
+  <si>
+    <t>B.COM</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>AAAKF5520H</t>
+  </si>
+  <si>
+    <t>123455259963</t>
+  </si>
+  <si>
+    <t>1125/2252/0018</t>
+  </si>
+  <si>
+    <t>5526</t>
+  </si>
+  <si>
+    <t>GDG5526</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>17/05/2017</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,17 +181,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -405,7 +489,7 @@
     <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -419,7 +503,7 @@
     <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,10 +526,49 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -462,17 +585,59 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>